--- a/Unity/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Unity/Luban/DataTables/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>BubbleType</t>
+  </si>
+  <si>
+    <t>NormalBubble</t>
+  </si>
+  <si>
+    <t>普通泡泡</t>
+  </si>
+  <si>
+    <t>PoppingBubble</t>
+  </si>
+  <si>
+    <t>可戳破泡泡</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="11.6283185840708" customWidth="1"/>
@@ -1118,6 +1133,37 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
